--- a/excelTemplate/PaymentAdvice.xlsx
+++ b/excelTemplate/PaymentAdvice.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\zt\zhongtan-server\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liudong/workspace/xiangmeng/git/zhongtan/zhongtan-server/excelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3EC35C-2EDF-5E41-ACC8-C16D46C5AEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28005" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28000" windowHeight="11740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>S/N</t>
   </si>
@@ -99,14 +100,22 @@
   </si>
   <si>
     <t>&lt;%=rs1.payment_advice_remarks_name%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VESSEL/VOYAGE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.payment_advice_vessel_voyage%&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,29 +203,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -225,15 +231,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -250,9 +253,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -290,9 +293,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +330,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +365,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,28 +538,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="6" customWidth="1"/>
-    <col min="8" max="10" width="26.5" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="6"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="47" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -565,62 +566,68 @@
       <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
